--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/LTIMindtree Ltd/Pruned_Excel/Final_Parameters/LTIMindtree Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/LTIMindtree Ltd/Pruned_Excel/Final_Parameters/LTIMindtree Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
   <si>
     <t>Balance Sheet of LTIMindtree(in Rs. Cr.)</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -2319,13 +2322,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2386,10 +2389,13 @@
       <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1416.7</v>
@@ -2421,31 +2427,31 @@
       <c r="K2">
         <v>260.4</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>260.4</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>47.8</v>
-      </c>
-      <c r="N2">
-        <v>212.6</v>
       </c>
       <c r="O2">
         <v>212.6</v>
       </c>
       <c r="P2">
+        <v>212.6</v>
+      </c>
+      <c r="Q2">
         <v>16.98</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>12.52</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>12.52</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1401.9</v>
@@ -2474,37 +2480,37 @@
       <c r="K3">
         <v>261.8</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>261.8</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>42.8</v>
-      </c>
-      <c r="N3">
-        <v>219</v>
       </c>
       <c r="O3">
         <v>219</v>
       </c>
       <c r="P3">
+        <v>219</v>
+      </c>
+      <c r="Q3">
         <v>16.1</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>13.58</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>12.94</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>13.58</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>12.94</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>1274.1</v>
@@ -2533,37 +2539,37 @@
       <c r="K4">
         <v>219.6</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>219.6</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>39.9</v>
-      </c>
-      <c r="N4">
-        <v>179.7</v>
       </c>
       <c r="O4">
         <v>179.7</v>
       </c>
       <c r="P4">
+        <v>179.7</v>
+      </c>
+      <c r="Q4">
         <v>16.13</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>11.15</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>10.73</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>11.15</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>10.73</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>1475.8</v>
@@ -2592,37 +2598,37 @@
       <c r="K5">
         <v>302.5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>302.5</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>57.6</v>
-      </c>
-      <c r="N5">
-        <v>244.9</v>
       </c>
       <c r="O5">
         <v>244.9</v>
       </c>
       <c r="P5">
+        <v>244.9</v>
+      </c>
+      <c r="Q5">
         <v>16.98</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>14.94</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>14.44</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>14.94</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>14.44</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>1593.7</v>
@@ -2654,37 +2660,37 @@
       <c r="K6">
         <v>302.1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>302.1</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>66.2</v>
-      </c>
-      <c r="N6">
-        <v>235.9</v>
       </c>
       <c r="O6">
         <v>235.9</v>
       </c>
       <c r="P6">
+        <v>235.9</v>
+      </c>
+      <c r="Q6">
         <v>17.1</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>13.85</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>13.54</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>13.85</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>13.54</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>1524.6</v>
@@ -2713,37 +2719,37 @@
       <c r="K7">
         <v>284</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>284</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>56.1</v>
-      </c>
-      <c r="N7">
-        <v>227.9</v>
       </c>
       <c r="O7">
         <v>227.9</v>
       </c>
       <c r="P7">
+        <v>227.9</v>
+      </c>
+      <c r="Q7">
         <v>17</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>13.42</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>13.11</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>13.42</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>13.11</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>1471.7</v>
@@ -2772,37 +2778,37 @@
       <c r="K8">
         <v>288.8</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>288.8</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>60.2</v>
-      </c>
-      <c r="N8">
-        <v>228.6</v>
       </c>
       <c r="O8">
         <v>228.6</v>
       </c>
       <c r="P8">
+        <v>228.6</v>
+      </c>
+      <c r="Q8">
         <v>16.98</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>13.46</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>13.43</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>13.46</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>13.43</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>1588.9</v>
@@ -2831,37 +2837,37 @@
       <c r="K9">
         <v>362.2</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>362.2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>77.5</v>
-      </c>
-      <c r="N9">
-        <v>284.7</v>
       </c>
       <c r="O9">
         <v>284.7</v>
       </c>
       <c r="P9">
+        <v>284.7</v>
+      </c>
+      <c r="Q9">
         <v>17.1</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>16.69</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>16.3</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>16.69</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>16.3</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>1592.9</v>
@@ -2893,37 +2899,37 @@
       <c r="K10">
         <v>308.8</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>308.8</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>64.09999999999999</v>
-      </c>
-      <c r="N10">
-        <v>244.7</v>
       </c>
       <c r="O10">
         <v>244.7</v>
       </c>
       <c r="P10">
+        <v>244.7</v>
+      </c>
+      <c r="Q10">
         <v>17.1</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>14.35</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>14.04</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>14.35</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>14.04</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>1778.2</v>
@@ -2955,37 +2961,37 @@
       <c r="K11">
         <v>347.3</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>347.3</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>80</v>
-      </c>
-      <c r="N11">
-        <v>267.3</v>
       </c>
       <c r="O11">
         <v>267.3</v>
       </c>
       <c r="P11">
+        <v>267.3</v>
+      </c>
+      <c r="Q11">
         <v>17.18</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>15.58</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>15.27</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>15.58</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>15.27</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>1656.2</v>
@@ -3017,37 +3023,37 @@
       <c r="K12">
         <v>362.9</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>362.9</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>75.90000000000001</v>
-      </c>
-      <c r="N12">
-        <v>287</v>
       </c>
       <c r="O12">
         <v>287</v>
       </c>
       <c r="P12">
+        <v>287</v>
+      </c>
+      <c r="Q12">
         <v>17.1</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>16.78</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>16.42</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>16.78</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>16.42</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>2210.1</v>
@@ -3079,37 +3085,37 @@
       <c r="K13">
         <v>534.4</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>534.4</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>129.7</v>
-      </c>
-      <c r="N13">
-        <v>404.7</v>
       </c>
       <c r="O13">
         <v>404.7</v>
       </c>
       <c r="P13">
+        <v>404.7</v>
+      </c>
+      <c r="Q13">
         <v>17.3</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>23.4</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>22.86</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>23.4</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>22.86</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>2033.3</v>
@@ -3141,37 +3147,37 @@
       <c r="K14">
         <v>466.1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>466.1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>118.8</v>
-      </c>
-      <c r="N14">
-        <v>347.3</v>
       </c>
       <c r="O14">
         <v>347.3</v>
       </c>
       <c r="P14">
+        <v>347.3</v>
+      </c>
+      <c r="Q14">
         <v>17.21</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>20.19</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>19.81</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>20.19</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>19.81</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>1883.1</v>
@@ -3203,37 +3209,37 @@
       <c r="K15">
         <v>396</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>396</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>74.90000000000001</v>
-      </c>
-      <c r="N15">
-        <v>321.1</v>
       </c>
       <c r="O15">
         <v>321.1</v>
       </c>
       <c r="P15">
+        <v>321.1</v>
+      </c>
+      <c r="Q15">
         <v>17.2</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>18.68</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>18.32</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>18.68</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>18.32</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>2330.5</v>
@@ -3265,37 +3271,37 @@
       <c r="K16">
         <v>480.5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>480.5</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>117.8</v>
-      </c>
-      <c r="N16">
-        <v>362.7</v>
       </c>
       <c r="O16">
         <v>362.7</v>
       </c>
       <c r="P16">
+        <v>362.7</v>
+      </c>
+      <c r="Q16">
         <v>17.34</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>20.94</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>20.9</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>20.94</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>20.9</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>2634.5</v>
@@ -3327,37 +3333,37 @@
       <c r="K17">
         <v>484.6</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>484.6</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>118.1</v>
-      </c>
-      <c r="N17">
-        <v>366.5</v>
       </c>
       <c r="O17">
         <v>366.5</v>
       </c>
       <c r="P17">
+        <v>366.5</v>
+      </c>
+      <c r="Q17">
         <v>17.4</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>21.05</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>20.87</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>21.05</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>20.87</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>2406.1</v>
@@ -3389,37 +3395,37 @@
       <c r="K18">
         <v>494.6</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>494.6</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>106.4</v>
-      </c>
-      <c r="N18">
-        <v>388.2</v>
       </c>
       <c r="O18">
         <v>388.2</v>
       </c>
       <c r="P18">
+        <v>388.2</v>
+      </c>
+      <c r="Q18">
         <v>17.4</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>22.35</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>22.12</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>22.32</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>22.12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>2318.5</v>
@@ -3451,37 +3457,37 @@
       <c r="K19">
         <v>497.6</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>497.6</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>115.8</v>
-      </c>
-      <c r="N19">
-        <v>381.8</v>
       </c>
       <c r="O19">
         <v>381.8</v>
       </c>
       <c r="P19">
+        <v>381.8</v>
+      </c>
+      <c r="Q19">
         <v>17.4</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>22</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>21.77</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>22</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>21.77</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>2333.3</v>
@@ -3513,37 +3519,37 @@
       <c r="K20">
         <v>478.7</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>478.7</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>118.3</v>
-      </c>
-      <c r="N20">
-        <v>360.4</v>
       </c>
       <c r="O20">
         <v>360.4</v>
       </c>
       <c r="P20">
+        <v>360.4</v>
+      </c>
+      <c r="Q20">
         <v>17.4</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>20.78</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>20.54</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>20.78</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>20.54</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>2965.5</v>
@@ -3575,37 +3581,37 @@
       <c r="K21">
         <v>662.4</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>662.4</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>168.2</v>
-      </c>
-      <c r="N21">
-        <v>494.2</v>
       </c>
       <c r="O21">
         <v>494.2</v>
       </c>
       <c r="P21">
+        <v>494.2</v>
+      </c>
+      <c r="Q21">
         <v>17.5</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>28.31</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>28.14</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>28.31</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>28.14</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>2799.4</v>
@@ -3637,37 +3643,37 @@
       <c r="K22">
         <v>575.4</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>575.4</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>145.6</v>
-      </c>
-      <c r="N22">
-        <v>429.8</v>
       </c>
       <c r="O22">
         <v>429.8</v>
       </c>
       <c r="P22">
+        <v>429.8</v>
+      </c>
+      <c r="Q22">
         <v>17.5</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>24.64</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>24.47</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>24.64</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>24.47</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>2764.6</v>
@@ -3699,37 +3705,37 @@
       <c r="K23">
         <v>530.1</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>530.1</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>133.1</v>
-      </c>
-      <c r="N23">
-        <v>397</v>
       </c>
       <c r="O23">
         <v>397</v>
       </c>
       <c r="P23">
+        <v>397</v>
+      </c>
+      <c r="Q23">
         <v>17.4</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>22.8</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>22.63</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>22.8</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>22.63</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>2825.1</v>
@@ -3761,37 +3767,37 @@
       <c r="K24">
         <v>530.2</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>530.2</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>114.3</v>
-      </c>
-      <c r="N24">
-        <v>415.9</v>
       </c>
       <c r="O24">
         <v>415.9</v>
       </c>
       <c r="P24">
+        <v>415.9</v>
+      </c>
+      <c r="Q24">
         <v>17.4</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>23.9</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>23.69</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>23.9</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>23.69</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>3033.1</v>
@@ -3823,37 +3829,37 @@
       <c r="K25">
         <v>623.1</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>623.1</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>156.7</v>
-      </c>
-      <c r="N25">
-        <v>466.4</v>
       </c>
       <c r="O25">
         <v>466.4</v>
       </c>
       <c r="P25">
+        <v>466.4</v>
+      </c>
+      <c r="Q25">
         <v>17.5</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>26.7</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>26.55</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>26.7</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>26.55</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>6586</v>
@@ -3885,23 +3891,20 @@
       <c r="K26">
         <v>1372.1</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1372.1</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>345.3</v>
-      </c>
-      <c r="N26">
-        <v>1026.8</v>
       </c>
       <c r="O26">
         <v>1026.8</v>
       </c>
       <c r="P26">
+        <v>1026.8</v>
+      </c>
+      <c r="Q26">
         <v>17.5</v>
-      </c>
-      <c r="Q26">
-        <v>34.75</v>
       </c>
       <c r="R26">
         <v>34.75</v>
@@ -3912,10 +3915,13 @@
       <c r="T26">
         <v>34.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>3426.7</v>
@@ -3947,37 +3953,37 @@
       <c r="K27">
         <v>676.8</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>676.8</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>180</v>
-      </c>
-      <c r="N27">
-        <v>496.8</v>
       </c>
       <c r="O27">
         <v>496.8</v>
       </c>
       <c r="P27">
+        <v>496.8</v>
+      </c>
+      <c r="Q27">
         <v>17.5</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>28.36</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>28.28</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>28.36</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>28.28</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28">
         <v>3173.4</v>
@@ -4009,23 +4015,20 @@
       <c r="K28">
         <v>740.9</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>740.9</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>165.1</v>
-      </c>
-      <c r="N28">
-        <v>575.8</v>
       </c>
       <c r="O28">
         <v>575.8</v>
       </c>
       <c r="P28">
+        <v>575.8</v>
+      </c>
+      <c r="Q28">
         <v>17.5</v>
-      </c>
-      <c r="Q28">
-        <v>32.95</v>
       </c>
       <c r="R28">
         <v>32.95</v>
@@ -4036,10 +4039,13 @@
       <c r="T28">
         <v>32.95</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>32.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29">
         <v>7337.7</v>
@@ -4071,37 +4077,37 @@
       <c r="K29">
         <v>1425.1</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1425.1</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>356.8</v>
-      </c>
-      <c r="N29">
-        <v>1068.3</v>
       </c>
       <c r="O29">
         <v>1068.3</v>
       </c>
       <c r="P29">
+        <v>1068.3</v>
+      </c>
+      <c r="Q29">
         <v>29.6</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>36.14</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>36.08</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>36.14</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>36.08</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>3963.5</v>
@@ -4133,37 +4139,37 @@
       <c r="K30">
         <v>806.1</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>806.1</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>206.9</v>
-      </c>
-      <c r="N30">
-        <v>599.2</v>
       </c>
       <c r="O30">
         <v>599.2</v>
       </c>
       <c r="P30">
+        <v>599.2</v>
+      </c>
+      <c r="Q30">
         <v>17.5</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>34.19</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>34.13</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>34.19</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>34.13</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>8325.9</v>
@@ -4195,37 +4201,37 @@
       <c r="K31">
         <v>1261.2</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1261.2</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>296.2</v>
-      </c>
-      <c r="N31">
-        <v>965</v>
       </c>
       <c r="O31">
         <v>965</v>
       </c>
       <c r="P31">
+        <v>965</v>
+      </c>
+      <c r="Q31">
         <v>29.6</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>32.62</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>32.58</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>32.62</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>32.58</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>7949.4</v>
@@ -4257,23 +4263,20 @@
       <c r="K32">
         <v>1495.5</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1495.5</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>366.6</v>
-      </c>
-      <c r="N32">
-        <v>1128.9</v>
       </c>
       <c r="O32">
         <v>1128.9</v>
       </c>
       <c r="P32">
+        <v>1128.9</v>
+      </c>
+      <c r="Q32">
         <v>17.5</v>
-      </c>
-      <c r="Q32">
-        <v>38.18</v>
       </c>
       <c r="R32">
         <v>38.18</v>
@@ -4284,10 +4287,13 @@
       <c r="T32">
         <v>38.18</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33">
         <v>8569.700000000001</v>
@@ -4319,37 +4325,37 @@
       <c r="K33">
         <v>1477.8</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1477.8</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>344.2</v>
-      </c>
-      <c r="N33">
-        <v>1133.6</v>
       </c>
       <c r="O33">
         <v>1133.6</v>
       </c>
       <c r="P33">
+        <v>1133.6</v>
+      </c>
+      <c r="Q33">
         <v>29.6</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>38.32</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>38.23</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>38.32</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>38.23</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>8378.799999999999</v>
@@ -4381,37 +4387,37 @@
       <c r="K34">
         <v>1492.1</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1492.1</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>368.7</v>
-      </c>
-      <c r="N34">
-        <v>1123.4</v>
       </c>
       <c r="O34">
         <v>1123.4</v>
       </c>
       <c r="P34">
+        <v>1123.4</v>
+      </c>
+      <c r="Q34">
         <v>29.6</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>37.97</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>37.9</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>37.97</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>37.9</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>8362.5</v>
@@ -4443,37 +4449,37 @@
       <c r="K35">
         <v>1401.5</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1401.5</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>312.3</v>
-      </c>
-      <c r="N35">
-        <v>1089.2</v>
       </c>
       <c r="O35">
         <v>1089.2</v>
       </c>
       <c r="P35">
+        <v>1089.2</v>
+      </c>
+      <c r="Q35">
         <v>29.6</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>36.83</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>36.75</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>36.83</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>36.75</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>8701</v>
@@ -4505,37 +4511,37 @@
       <c r="K36">
         <v>1488.7</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1488.7</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>353.4</v>
-      </c>
-      <c r="N36">
-        <v>1135.3</v>
       </c>
       <c r="O36">
         <v>1135.3</v>
       </c>
       <c r="P36">
+        <v>1135.3</v>
+      </c>
+      <c r="Q36">
         <v>29.6</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>38.36</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>38.26</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>38.36</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>38.26</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>9286.4</v>
@@ -4567,37 +4573,37 @@
       <c r="K37">
         <v>1398.9</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1398.9</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>357.4</v>
-      </c>
-      <c r="N37">
-        <v>1041.5</v>
       </c>
       <c r="O37">
         <v>1041.5</v>
       </c>
       <c r="P37">
+        <v>1041.5</v>
+      </c>
+      <c r="Q37">
         <v>29.6</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>35.17</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>35.11</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>35.17</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>35.11</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>9104.6</v>
@@ -4629,37 +4635,37 @@
       <c r="K38">
         <v>1636.1</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1636.1</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>415.9</v>
-      </c>
-      <c r="N38">
-        <v>1220.2</v>
       </c>
       <c r="O38">
         <v>1220.2</v>
       </c>
       <c r="P38">
+        <v>1220.2</v>
+      </c>
+      <c r="Q38">
         <v>29.6</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>41.21</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>41.13</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>41.21</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>41.13</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39">
         <v>8868.4</v>
@@ -4691,37 +4697,37 @@
       <c r="K39">
         <v>1482.1</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>1482.1</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>375.9</v>
-      </c>
-      <c r="N39">
-        <v>1106.2</v>
       </c>
       <c r="O39">
         <v>1106.2</v>
       </c>
       <c r="P39">
+        <v>1106.2</v>
+      </c>
+      <c r="Q39">
         <v>29.6</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>37.37</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>37.3</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>37.37</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>37.3</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40">
         <v>8603.9</v>
@@ -4753,31 +4759,31 @@
       <c r="K40">
         <v>1420.8</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>1420.8</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>327.2</v>
-      </c>
-      <c r="N40">
-        <v>1093.6</v>
       </c>
       <c r="O40">
         <v>1093.6</v>
       </c>
       <c r="P40">
+        <v>1093.6</v>
+      </c>
+      <c r="Q40">
         <v>29.6</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>36.95</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>36.85</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>36.95</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>36.85</v>
       </c>
     </row>
@@ -4796,58 +4802,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:18">
